--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -603,15 +603,11 @@
     <t>wait(3);
 SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
-  <si>
-    <t>Pass</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -1086,18 +1082,18 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1159,9 +1155,7 @@
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="204.75" thickBot="1">
@@ -1188,9 +1182,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="204.75" thickBot="1">
@@ -1217,9 +1209,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="204.75" thickBot="1">
@@ -1616,12 +1606,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
@@ -601,7 +601,15 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1090,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H3" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,7 +1137,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1">
+    <row r="2" spans="1:11" ht="281.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
@@ -603,11 +603,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -1090,7 +1086,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H2:H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1137,7 +1133,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="281.25" thickBot="1">
+    <row r="2" spans="1:11" ht="217.5" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
@@ -583,6 +583,17 @@
 };</t>
   </si>
   <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(system_test_link);
@@ -593,19 +604,8 @@
 ClickRunTest(runtest_bottom_xpath);
 wait(10);
 validate4;
-CheckUITextContains(https://www.google.co.in/_wants_to_know_your_location);
+CheckUITextContains(https://www.google.co.in);
 press_Key(Back);</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1147,13 +1147,13 @@
         <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>59</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_System_JS.xlsx
@@ -180,18 +180,6 @@
 validate4;</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(system_test_link);
-validate2;
-SelectTestToRun(VT200_0963_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-validate4;
-</t>
-  </si>
-  <si>
     <t>wait(3);
 validate1;
 link_Click(system_test_link);
@@ -434,24 +422,6 @@
 validate4
 {
 validate_SystemProperties=getallproperties
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=System JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0963
-};
-validate4
-{
-validate_Result=?
 };</t>
   </si>
   <si>
@@ -606,6 +576,48 @@
 validate4;
 CheckUITextContains(https://www.google.co.in);
 press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(system_test_link);
+validate2;
+SelectTestToRun(VT200_0963_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+SelectTestToRun(VT200_0959_string);
+ClickRunTest(runtest_top_xpath);
+validate4;
+ClickRunTest(runtest_bottom_xpath);
+TaponGetStartparams;
+validate5;
+CheckUITextContains(?ParamsAreSet);
+ClickUIButtonText(OK);
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=System JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0963
+};
+validate4
+{
+validate_Text_Exists=VT200-0959
+};
+validate5
+{
+validate_App_Launched_Device=com.rhomobile.testapp
+};</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1144,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="2" t="s">
@@ -1171,7 +1183,7 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>19</v>
@@ -1180,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="2"/>
@@ -1198,7 +1210,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -1207,10 +1219,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="2"/>
@@ -1225,7 +1237,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>21</v>
@@ -1237,7 +1249,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="2"/>
@@ -1252,7 +1264,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
@@ -1261,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1279,7 +1291,7 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -1306,7 +1318,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>13</v>
@@ -1315,16 +1327,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="255.75" thickBot="1">
+    <row r="9" spans="1:11" ht="268.5" thickBot="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1333,25 +1345,25 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="217.5" thickBot="1">
+    <row r="10" spans="1:11" ht="255.75" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1360,25 +1372,25 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="204.75" thickBot="1">
+    <row r="11" spans="1:11" ht="217.5" thickBot="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1387,19 +1399,19 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1414,19 +1426,19 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1441,7 +1453,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>25</v>
@@ -1450,10 +1462,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1468,7 +1480,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>26</v>
@@ -1477,10 +1489,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1495,7 +1507,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>27</v>
@@ -1504,10 +1516,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1522,7 +1534,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>28</v>
@@ -1531,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1549,7 +1561,7 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>29</v>
@@ -1558,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1576,7 +1588,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>17</v>
@@ -1585,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
